--- a/tyler/cs301/fall19/materials/code/lec-16/files/h10.xlsx
+++ b/tyler/cs301/fall19/materials/code/lec-16/files/h10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trh/git_co/caraza-harter-com/tyler/cs301/spring19/materials/code/lec-16/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trh/g/caraza-harter-com/tyler/cs301/fall19/materials/code/lec-16/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{82A5B134-D149-C340-8EBE-325DD87D8597}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60436383-BDEF-7445-BFA3-AC04DA932EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="3640" windowWidth="32340" windowHeight="11920"/>
+    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hurricanes" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>year</t>
+    <t>formed</t>
+  </si>
+  <si>
+    <t>dissipated</t>
   </si>
   <si>
     <t>mph</t>
@@ -40,10 +43,13 @@
     <t>Baker</t>
   </si>
   <si>
+    <t>2.55M</t>
+  </si>
+  <si>
     <t>Camille</t>
   </si>
   <si>
-    <t>1.43B</t>
+    <t>1.42B</t>
   </si>
   <si>
     <t>Eloise</t>
@@ -55,16 +61,37 @@
     <t>Frederic</t>
   </si>
   <si>
+    <t>1.77B</t>
+  </si>
+  <si>
     <t>Elena</t>
   </si>
   <si>
+    <t>1.3B</t>
+  </si>
+  <si>
+    <t>Opal</t>
+  </si>
+  <si>
+    <t>4.7B</t>
+  </si>
+  <si>
     <t>Danny</t>
   </si>
   <si>
+    <t>100M</t>
+  </si>
+  <si>
     <t>Ivan</t>
   </si>
   <si>
+    <t>26.1B</t>
+  </si>
+  <si>
     <t>Dennis</t>
+  </si>
+  <si>
+    <t>3.98B</t>
   </si>
   <si>
     <t>Katrina</t>
@@ -76,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,21 +235,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -571,12 +583,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -931,17 +939,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -957,158 +964,208 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1950</v>
+        <v>18493</v>
       </c>
       <c r="C2" s="1">
-        <v>120</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2550000</v>
-      </c>
-      <c r="E2" s="1">
+        <v>18507</v>
+      </c>
+      <c r="D2">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>1969</v>
+        <v>25429</v>
       </c>
       <c r="C3" s="1">
+        <v>25437</v>
+      </c>
+      <c r="D3">
         <v>175</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>1975</v>
+        <v>27650</v>
       </c>
       <c r="C4" s="1">
+        <v>27661</v>
+      </c>
+      <c r="D4">
         <v>125</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>29096</v>
+      </c>
+      <c r="C5" s="1">
+        <v>29113</v>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>31287</v>
+      </c>
+      <c r="C6" s="1">
+        <v>31294</v>
+      </c>
+      <c r="D6">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>34969</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34978</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35627</v>
+      </c>
+      <c r="C8" s="1">
+        <v>35638</v>
+      </c>
+      <c r="D8">
         <v>80</v>
       </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1979</v>
-      </c>
-      <c r="C5" s="1">
-        <v>130</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1770000000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>38232</v>
+      </c>
+      <c r="C9" s="1">
+        <v>38255</v>
+      </c>
+      <c r="D9">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1985</v>
-      </c>
-      <c r="C6" s="1">
-        <v>125</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1300000000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>38537</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38551</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1997</v>
-      </c>
-      <c r="C7" s="1">
-        <v>80</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C8" s="1">
-        <v>165</v>
-      </c>
-      <c r="D8" s="1">
-        <v>26100000000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C9" s="1">
-        <v>150</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3980000000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>38587</v>
+      </c>
+      <c r="C11" s="1">
+        <v>38595</v>
+      </c>
+      <c r="D11">
         <v>175</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1836</v>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
